--- a/data/trans_bre/P48_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,62</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>408,45%</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>439,5%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>340,22%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>384,84%</t>
+          <t>-1,43%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-15,8%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>430,48%</t>
         </is>
       </c>
     </row>
@@ -668,27 +694,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 8,92</t>
+          <t>0,0; 10,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 12,23</t>
+          <t>0,0; 10,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 7,11</t>
+          <t>-7,35; 3,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 7,89</t>
+          <t>-7,77; 3,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 18,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +728,16 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,88%</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>43,55%</t>
+          <t>-16,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>-10,75%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-13,0%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5,73%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 11,75</t>
+          <t>-7,86; 9,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 10,23</t>
+          <t>-12,33; 6,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 8,17</t>
+          <t>-8,15; 4,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 7,54</t>
+          <t>-7,98; 4,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 108,04</t>
+          <t>-8,21; 10,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 93,93</t>
+          <t>-35,85; 69,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 153,19</t>
+          <t>-49,88; 49,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 138,23</t>
+          <t>-61,44; 77,86</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-62,18; 80,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-38,77; 93,92</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-7,86</t>
+          <t>-8,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,53</t>
+          <t>-9,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-15,79</t>
+          <t>-18,11</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,74</t>
+          <t>-17,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,36%</t>
+          <t>-6,7</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,73%</t>
+          <t>-10,6%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-17,62%</t>
+          <t>-12,62%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,65%</t>
+          <t>-20,27%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-19,53%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-8,01%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,02; 0,28</t>
+          <t>-18,0; 3,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,92; 3,56</t>
+          <t>-20,92; 4,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,02; -6,93</t>
+          <t>-27,32; -9,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,47; -7,81</t>
+          <t>-26,26; -7,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,96; 0,37</t>
+          <t>-17,38; 3,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 4,81</t>
+          <t>-20,95; 3,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,91; -8,17</t>
+          <t>-25,61; 6,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,34; -9,04</t>
+          <t>-29,28; -10,92</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-28,63; -9,41</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 4,33</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-6,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 7,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 7,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 3,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,25; 3,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 23,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 27,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 11,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 12,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,54</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-5,12</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-4,26</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-0,94%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-6,73%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-13,35%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-11,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-8,51; 6,89</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-10,9; 6,96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; 2,22</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 3,41</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 9,3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-18,48; 20,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-24,83; 21,85</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-29,34; 6,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-28,39; 12,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-19,67; 30,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P48_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P48_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,219 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,03</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,87</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-1,43%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-15,8%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>430,48%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>2.972126187653129</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.672278594478077</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.2467044184883832</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.542394088000144</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>7.408900708322996</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.1301723532590782</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.2754272588571439</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>4.861951163526127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,48</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 10,69</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,35; 3,98</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,77; 3,57</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-0,89; 18,75</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-7.242557406864734</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-7.949166042269098</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.7828755556395299</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.47735549015696</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.58201476943872</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.535008541567181</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.07187078811793</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>27.47479739622936</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>1,03</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,15</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,88%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-16,44%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-10,75%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-13,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-7,86; 9,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,33; 6,68</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,15; 4,7</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 4,34</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,21; 10,0</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-35,85; 69,08</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-49,88; 49,53</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-61,44; 77,86</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-62,18; 80,6</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-38,77; 93,92</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>1.034678041794038</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.45320265346713</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.3021992367372453</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.7641670597637804</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.14349256110237</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.058790135145855</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.171524285728387</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.03616568598378774</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.08861666134987047</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1386168953247081</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-9,58</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-18,11</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-17,33</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-6,7</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-10,6%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-12,62%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-20,27%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-19,53%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-8,01%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.856661193533896</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.11968157342499</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.055775101185088</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-7.582320338623403</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-6.724394190039448</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3585071771529226</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5032147046408211</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5696112260476714</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.5951584966996002</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3366670459517285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,0; 3,13</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,92; 4,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-27,32; -9,11</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-26,26; -7,89</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-17,38; 3,37</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-20,95; 3,97</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-25,61; 6,49</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-29,28; -10,92</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-28,63; -9,41</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-19,52; 4,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.022943579289358</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.65752960119081</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.314579683483942</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.824535383741615</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>10.86347424513836</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.6907650363865478</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.5086486073539829</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.011329724355711</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8975387237859893</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.069069570671996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +863,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-8.618752714936518</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-10.33351980899459</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-18.53101272175798</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-18.06619407393687</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-6.298939199700326</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1059508418149618</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1368149321494013</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.2082991937391406</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.2034419291453642</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.07576366930508524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.99909258416194</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-22.81054067454581</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-27.2376966764182</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-26.79557602714871</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-16.56927748657224</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2095251451762561</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2793177102895524</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.301514115336257</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2948841493137232</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1904593079599944</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.130657969514166</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.717836827580924</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-8.644073962794467</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>-8.452271625675124</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>4.189824400933064</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.03967413869912022</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.06415243622568133</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>-0.1096048559418879</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>-0.1009987422398302</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.05418241243701693</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,37</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,54</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,12</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-4,26</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,94%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-6,73%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-13,35%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-11,67%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-0,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; 6,89</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 6,96</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,77; 2,22</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-11,92; 3,41</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-8,12; 9,3</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-18,48; 20,23</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-24,83; 21,85</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-29,34; 6,68</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-28,39; 12,24</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-19,67; 30,17</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.3703101162745637</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-4.209015020825152</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-5.615597815474171</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.932690559292241</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.8443307503643749</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.009359829366712969</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.1097469566446616</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1486075354225922</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1364101736911823</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.02338575678629675</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.511577436796882</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.39421561247867</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.8495420470583</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-12.61901823879719</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-7.032570090460107</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1848426255850654</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2861896221460601</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3051463143436998</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3068181854267809</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1741433785235716</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.888893609535995</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.564978636106079</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.851159113025419</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.562933696617389</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.22902572651118</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2023317645620406</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.1692950360709446</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.05395820489628377</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.08247691968211626</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.3317167527989138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
